--- a/Inventory.xlsx
+++ b/Inventory.xlsx
@@ -16,9 +16,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,12 +57,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,13 +429,27 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L65"/>
+  <dimension ref="A1:L64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="18" customWidth="1" min="2" max="2"/>
+    <col width="133" customWidth="1" min="3" max="3"/>
+    <col width="57" customWidth="1" min="4" max="4"/>
+    <col width="16" customWidth="1" min="5" max="5"/>
+    <col width="10" customWidth="1" min="6" max="6"/>
+    <col width="10" customWidth="1" min="7" max="7"/>
+    <col width="21" customWidth="1" min="8" max="8"/>
+    <col width="29" customWidth="1" min="9" max="9"/>
+    <col width="19" customWidth="1" min="10" max="10"/>
+    <col width="31" customWidth="1" min="11" max="11"/>
+    <col width="46" customWidth="1" min="12" max="12"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -520,9 +534,6 @@
           <t>MP1YVPH5</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
           <t>5/29/2024</t>
@@ -568,9 +579,6 @@
           <t>5CG8418Z01</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">06/03/2024
@@ -617,9 +625,6 @@
           <t>PF1H2NPZ</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
           <t>5/28/2024</t>
@@ -665,14 +670,11 @@
           <t>V5FFV285</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
           <t>2022-413</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
           <t>Ibrahim Altoyan</t>
@@ -711,14 +713,11 @@
       <c r="D6" t="n">
         <v>2453</v>
       </c>
-      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
           <t>2022-413</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
         <is>
           <t>Ibrahim Altoyan</t>
@@ -759,14 +758,11 @@
           <t>1CR105048Z</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
           <t>2021-355</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
           <t xml:space="preserve">Mohammed Zafir Alqarni </t>
@@ -775,7 +771,6 @@
       <c r="J7" t="n">
         <v>1430</v>
       </c>
-      <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
           <t xml:space="preserve">Used and Good Condition </t>
@@ -803,9 +798,6 @@
           <t>3CQ048020Q</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
           <t>25/7/2024</t>
@@ -852,9 +844,6 @@
           <t>PF0Y9X1M</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
           <t>12/19/2023</t>
@@ -890,16 +879,12 @@
           <t xml:space="preserve">5G Zain Mobile </t>
         </is>
       </c>
-      <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
           <t>Number 0581576242</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" s="2" t="n">
+      <c r="H10" s="3" t="n">
         <v>45482</v>
       </c>
       <c r="I10" t="inlineStr">
@@ -942,10 +927,7 @@
           <t xml:space="preserve">PF3XW5VH </t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" s="2" t="n">
+      <c r="H11" s="3" t="n">
         <v>45572</v>
       </c>
       <c r="I11" t="inlineStr">
@@ -988,10 +970,7 @@
           <t>CND8340SBV</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" s="2" t="n">
+      <c r="H12" s="3" t="n">
         <v>45491</v>
       </c>
       <c r="I12" t="inlineStr">
@@ -1034,10 +1013,7 @@
           <t>PF3XVRD4</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" s="2" t="n">
+      <c r="H13" s="3" t="n">
         <v>45494</v>
       </c>
       <c r="I13" t="inlineStr">
@@ -1081,10 +1057,7 @@
           <t>CND8340RXX</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" s="2" t="n">
+      <c r="H14" s="3" t="n">
         <v>45497</v>
       </c>
       <c r="I14" t="inlineStr">
@@ -1127,14 +1100,9 @@
           <t>PF1PY8K2</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" s="2" t="n">
+      <c r="H15" s="3" t="n">
         <v>45540</v>
       </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
           <t>IT</t>
@@ -1167,14 +1135,9 @@
           <t>S/N</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" s="2" t="n">
+      <c r="H16" s="3" t="n">
         <v>45540</v>
       </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
           <t>IT</t>
@@ -1207,10 +1170,7 @@
           <t xml:space="preserve">PF3Y5Q41 </t>
         </is>
       </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" s="2" t="n">
+      <c r="H17" s="3" t="n">
         <v>45502</v>
       </c>
       <c r="I17" t="inlineStr">
@@ -1253,10 +1213,7 @@
           <t>PF3KTWAL</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" s="2" t="n">
+      <c r="H18" s="3" t="n">
         <v>45502</v>
       </c>
       <c r="I18" t="inlineStr">
@@ -1299,10 +1256,7 @@
           <t>CND91226XJ</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" s="2" t="n">
+      <c r="H19" s="3" t="n">
         <v>45503</v>
       </c>
       <c r="I19" t="inlineStr">
@@ -1345,10 +1299,7 @@
           <t>1A5C2N00</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" s="2" t="n">
+      <c r="H20" s="3" t="n">
         <v>45442</v>
       </c>
       <c r="I20" t="inlineStr">
@@ -1393,10 +1344,6 @@
           <t>PF1H35AV</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
           <t>Mohammed Farag</t>
@@ -1437,10 +1384,7 @@
           <t xml:space="preserve"> MP1YVZP2</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" s="2" t="n">
+      <c r="H22" s="3" t="n">
         <v>45503</v>
       </c>
       <c r="I22" t="inlineStr">
@@ -1483,10 +1427,7 @@
           <t>CND04277BD</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" s="2" t="n">
+      <c r="H23" s="3" t="n">
         <v>45503</v>
       </c>
       <c r="I23" t="inlineStr">
@@ -1531,10 +1472,7 @@
           <t xml:space="preserve">3CQ048020Q </t>
         </is>
       </c>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" s="2" t="n">
+      <c r="H24" s="3" t="n">
         <v>45498</v>
       </c>
       <c r="I24" t="inlineStr">
@@ -1577,10 +1515,7 @@
           <t>cnd8482yn</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" s="2" t="n">
+      <c r="H25" s="3" t="n">
         <v>45504</v>
       </c>
       <c r="I25" t="inlineStr">
@@ -1623,10 +1558,7 @@
           <t>PF2R9E7Y</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" s="2" t="n">
+      <c r="H26" s="3" t="n">
         <v>45504</v>
       </c>
       <c r="I26" t="inlineStr">
@@ -1669,10 +1601,6 @@
           <t>PF3R94WA</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
           <t>Taif Albishri</t>
@@ -1713,10 +1641,6 @@
           <t>CND83409XX</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
           <t>none</t>
@@ -1760,10 +1684,7 @@
           <t>NXGNPEM0368171F5227600</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" s="2" t="n">
+      <c r="H29" s="3" t="n">
         <v>44362</v>
       </c>
       <c r="I29" t="inlineStr">
@@ -1806,10 +1727,6 @@
           <t>PF1B77F8</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
         <is>
           <t>Asif Khan</t>
@@ -1850,10 +1767,6 @@
           <t>5CG8482HDJ</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
         <is>
           <t>Rehan Amin</t>
@@ -1895,10 +1808,7 @@
           <t>CND824C562</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" s="2" t="n">
+      <c r="H32" s="3" t="n">
         <v>45509</v>
       </c>
       <c r="I32" t="inlineStr">
@@ -1941,10 +1851,7 @@
           <t>FP1B75GX</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" s="2" t="n">
+      <c r="H33" s="3" t="n">
         <v>45604</v>
       </c>
       <c r="I33" t="inlineStr">
@@ -1988,9 +1895,6 @@
           <t>PF3XVX0A</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr">
         <is>
           <t>14/8/2024</t>
@@ -2036,9 +1940,6 @@
           <t>PF1H338M</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr">
         <is>
           <t>25/8/2024</t>
@@ -2085,9 +1986,6 @@
           <t xml:space="preserve"> CND9255MHB</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr">
         <is>
           <t>18/8/2024</t>
@@ -2134,9 +2032,6 @@
           <t>CND9221JVK</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr">
         <is>
           <t>15/8/2024</t>
@@ -2183,9 +2078,6 @@
           <t xml:space="preserve"> CND907342C</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr">
         <is>
           <t>26/8/2024</t>
@@ -2231,9 +2123,6 @@
           <t>CND8340SDB</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr">
         <is>
           <t>16/9/2024</t>
@@ -2259,7 +2148,6 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr"/>
       <c r="B40" t="inlineStr">
         <is>
           <t>Laptop</t>
@@ -2275,12 +2163,6 @@
           <t>5CD35129JV</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
           <t>IT</t>
@@ -2313,10 +2195,7 @@
           <t>CND9105BKD</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" s="2" t="n">
+      <c r="H41" s="3" t="n">
         <v>45605</v>
       </c>
       <c r="I41" t="inlineStr">
@@ -2359,10 +2238,7 @@
           <t>CND9221J2Q</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" s="2" t="n">
+      <c r="H42" s="3" t="n">
         <v>45295</v>
       </c>
       <c r="I42" t="inlineStr">
@@ -2405,10 +2281,6 @@
           <t>CND9105BMF</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
           <t>none</t>
@@ -2451,10 +2323,6 @@
           <t xml:space="preserve">5CD0040CYG </t>
         </is>
       </c>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
           <t>Qasim Muhammed</t>
@@ -2495,9 +2363,6 @@
           <t>MP1YTHX7</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr">
         <is>
           <t>14/10/2024</t>
@@ -2543,10 +2408,7 @@
           <t>MP22G5JT</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr"/>
-      <c r="H46" s="2" t="n">
+      <c r="H46" s="3" t="n">
         <v>45301</v>
       </c>
       <c r="I46" t="inlineStr">
@@ -2589,10 +2451,7 @@
           <t>BCD7F63</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr"/>
-      <c r="H47" s="2" t="n">
+      <c r="H47" s="3" t="n">
         <v>45421</v>
       </c>
       <c r="I47" t="inlineStr">
@@ -2608,7 +2467,6 @@
           <t>IT</t>
         </is>
       </c>
-      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2632,10 +2490,7 @@
           <t>PF46C1ZT</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr"/>
-      <c r="H48" s="2" t="n">
+      <c r="H48" s="3" t="n">
         <v>45360</v>
       </c>
       <c r="I48" t="inlineStr">
@@ -2680,9 +2535,6 @@
           <t>PF3Y5XRK</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr">
         <is>
           <t>16/9/2024</t>
@@ -2728,9 +2580,6 @@
           <t xml:space="preserve">4TD7F63 </t>
         </is>
       </c>
-      <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr">
         <is>
           <t>29/8/2024</t>
@@ -2776,9 +2625,6 @@
           <t xml:space="preserve">CND04277VP </t>
         </is>
       </c>
-      <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr"/>
-      <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr">
         <is>
           <t>24/9/2024</t>
@@ -2824,9 +2670,6 @@
           <t>CND824C5M7</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr">
         <is>
           <t>30/9/2024</t>
@@ -2873,9 +2716,6 @@
           <t>4CE121311W</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr">
         <is>
           <t>19/9/2024</t>
@@ -2921,9 +2761,6 @@
           <t>DTNZHP3</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr"/>
-      <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr">
         <is>
           <t>28/10/2024</t>
@@ -2969,9 +2806,6 @@
           <t>CN-09WCH1-FCC00-237-AVHX-A01</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr"/>
-      <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr">
         <is>
           <t>28/10/2024</t>
@@ -3017,9 +2851,6 @@
           <t>CN-0DTPK2-LO300-217-0D8H-A00,  CN-0C4JKP-PRC00-22E-01CJ</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr"/>
-      <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr">
         <is>
           <t>28/10/2024</t>
@@ -3065,10 +2896,7 @@
           <t>41QZ763</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr"/>
-      <c r="G57" t="inlineStr"/>
-      <c r="H57" s="2" t="n">
+      <c r="H57" s="3" t="n">
         <v>45331</v>
       </c>
       <c r="I57" t="inlineStr">
@@ -3103,29 +2931,24 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>ASUS ExpertBook Core i5-10210, Ram 16GB, HDD 512GB, Widows 10 Pro</t>
+          <t>Lenovo ThinkBook 14 G2 ITL CPU: Intel i7-1165G7, Storage: 512GB SSD RAM: 8GB, OS: Windows 10 Pro</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>M1NXCV18Y472045</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr"/>
-      <c r="G58" t="inlineStr"/>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>27/8/2024</t>
-        </is>
+          <t>MP1YVV0A</t>
+        </is>
+      </c>
+      <c r="H58" s="3" t="n">
+        <v>45513</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Shrouq Aldakkan</t>
+          <t xml:space="preserve">Taghreed Alghamri </t>
         </is>
       </c>
       <c r="J58" t="n">
-        <v>2299</v>
+        <v>2090</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -3141,7 +2964,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>HR</t>
+          <t>Sales</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -3151,27 +2974,24 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Lenovo ThinkBook 14 G2 ITL CPU: Intel i7-1165G7, Storage: 512GB SSD RAM: 8GB, OS: Windows 10 Pro</t>
+          <t xml:space="preserve">Lenovo laptop </t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>MP1YVV0A</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr"/>
-      <c r="G59" t="inlineStr"/>
-      <c r="H59" s="2" t="n">
-        <v>45513</v>
+          <t xml:space="preserve">PF1H3XMH </t>
+        </is>
+      </c>
+      <c r="H59" s="3" t="n">
+        <v>45608</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t xml:space="preserve">Taghreed Alghamri </t>
+          <t>Turki alotaibi</t>
         </is>
       </c>
       <c r="J59" t="n">
-        <v>2090</v>
+        <v>2560</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -3187,7 +3007,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Sales</t>
+          <t xml:space="preserve">Operation </t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -3197,27 +3017,24 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lenovo laptop </t>
+          <t xml:space="preserve">HP Pavilion15-cs3001nx i5-1035G1  8GB - HDD1TB - SSD 128, DSP15.6in </t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t xml:space="preserve">PF1H3XMH </t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr"/>
-      <c r="G60" t="inlineStr"/>
-      <c r="H60" s="2" t="n">
+          <t xml:space="preserve">5CD0040CQ5 </t>
+        </is>
+      </c>
+      <c r="H60" s="3" t="n">
         <v>45608</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Turki alotaibi</t>
+          <t>Ahmed Alnajjar</t>
         </is>
       </c>
       <c r="J60" t="n">
-        <v>2560</v>
+        <v>1905</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -3226,7 +3043,7 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t xml:space="preserve">Used and Good Condition </t>
+          <t>Damaged</t>
         </is>
       </c>
     </row>
@@ -3243,27 +3060,26 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t xml:space="preserve">HP Pavilion15-cs3001nx i5-1035G1  8GB - HDD1TB - SSD 128, DSP15.6in </t>
+          <t xml:space="preserve">Dell Vostro 14 5401 Core i5-1035, Ram 8GB, SSD 256GB, Widows 10 Home  </t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t xml:space="preserve">5CD0040CQ5 </t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr"/>
-      <c r="G61" t="inlineStr"/>
-      <c r="H61" s="2" t="n">
-        <v>45608</v>
+          <t>1TC7F63</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>21/11/2024</t>
+        </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Ahmed Alnajjar</t>
+          <t>mohamed jaber</t>
         </is>
       </c>
       <c r="J61" t="n">
-        <v>1905</v>
+        <v>2292</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -3272,7 +3088,7 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Damaged</t>
+          <t xml:space="preserve">Used and Good Condition </t>
         </is>
       </c>
     </row>
@@ -3289,29 +3105,24 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dell Vostro 14 5401 Core i5-1035, Ram 8GB, SSD 256GB, Widows 10 Home  </t>
+          <t>Lenovo Laptop i5 Core, 500GB SATA SSD, 8GB Ram</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>1TC7F63</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr"/>
-      <c r="G62" t="inlineStr"/>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>21/11/2024</t>
-        </is>
+          <t>PF4430EK</t>
+        </is>
+      </c>
+      <c r="H62" s="3" t="n">
+        <v>45454</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>mohamed jaber</t>
+          <t>Mohammed Al Qarnii</t>
         </is>
       </c>
       <c r="J62" t="n">
-        <v>2292</v>
+        <v>2943</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -3320,16 +3131,11 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t xml:space="preserve">Used and Good Condition </t>
+          <t>not usable/power issue</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Operation </t>
-        </is>
-      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>Laptop</t>
@@ -3337,108 +3143,50 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Lenovo Laptop i5 Core, 500GB SATA SSD, 8GB Ram</t>
+          <t>Lenovo E15 15” i5, 512GB, 8GB</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>PF4430EK</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr"/>
-      <c r="G63" t="inlineStr"/>
-      <c r="H63" s="2" t="n">
-        <v>45454</v>
+          <t>PF3QB0NB</t>
+        </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Mohammed Al Qarnii</t>
+          <t>Motasem Al Zamil</t>
         </is>
       </c>
       <c r="J63" t="n">
-        <v>2943</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>not usable/power issue</t>
-        </is>
+        <v>3000</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr"/>
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Laptop</t>
+          <t>laptop</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Lenovo E15 15” i5, 512GB, 8GB</t>
+          <t>test</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>PF3QB0NB</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr"/>
-      <c r="G64" t="inlineStr"/>
-      <c r="H64" t="inlineStr"/>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>Motasem Al Zamil</t>
-        </is>
-      </c>
-      <c r="J64" t="n">
-        <v>3000</v>
-      </c>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>laptop</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
           <t>123</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr"/>
-      <c r="F65" t="inlineStr"/>
-      <c r="G65" t="inlineStr"/>
-      <c r="H65" t="inlineStr"/>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="L65" t="inlineStr">
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
         <is>
           <t>New</t>
         </is>

--- a/Inventory.xlsx
+++ b/Inventory.xlsx
@@ -16,9 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -57,13 +55,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L64"/>
+  <dimension ref="A1:L52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,18 +433,18 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="15" customWidth="1" min="1" max="1"/>
-    <col width="18" customWidth="1" min="2" max="2"/>
-    <col width="133" customWidth="1" min="3" max="3"/>
-    <col width="57" customWidth="1" min="4" max="4"/>
-    <col width="16" customWidth="1" min="5" max="5"/>
-    <col width="10" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="13" customWidth="1" min="2" max="2"/>
+    <col width="100" customWidth="1" min="3" max="3"/>
+    <col width="30" customWidth="1" min="4" max="4"/>
+    <col width="31" customWidth="1" min="5" max="5"/>
+    <col width="5" customWidth="1" min="6" max="6"/>
     <col width="10" customWidth="1" min="7" max="7"/>
-    <col width="21" customWidth="1" min="8" max="8"/>
-    <col width="29" customWidth="1" min="9" max="9"/>
+    <col width="13" customWidth="1" min="8" max="8"/>
+    <col width="28" customWidth="1" min="9" max="9"/>
     <col width="19" customWidth="1" min="10" max="10"/>
-    <col width="31" customWidth="1" min="11" max="11"/>
-    <col width="46" customWidth="1" min="12" max="12"/>
+    <col width="10" customWidth="1" min="11" max="11"/>
+    <col width="26" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -534,22 +530,17 @@
           <t>MP1YVPH5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>5/29/2024</t>
-        </is>
-      </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Khalid Muharrab Alanizi</t>
+          <t>Yasir Yousef</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>2622</v>
+        <v>1212</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Temporarly With Yasir Yousef </t>
+          <t>IT</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -561,215 +552,197 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>Finance</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Laptop</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>LENOVO THINKBOOK 14 G2 ITL CPU: INTEL I7-1165G7, STORAGE: 512GB SSD RAM: 8GB, OS: WINDOWS 10 PRO</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>MP1YTPBR</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Ibrahim Alhumaidi</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>2370</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Used and Good Condition </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Finance</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Laptop</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>LENOVO IDEAPAD 330S-14IKB, CPU: INTEL CORE I5-8250U, RAM: 4GB, STORGE: 1T HDD</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>PF1HLQ71</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Mohammed Abokhalid</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>2993</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Used and Good Condition </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>Operation</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Laptop</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Laptop</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ideapad Lenovo laptop </t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>FP1B73U1</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Used and Good Condition </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Operation</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Laptop</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>HP laptop 14-cf0 - Core i5 512 GB 8GB</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>5CG8418Z01</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">06/03/2024
 </t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>Umair shah</t>
         </is>
       </c>
-      <c r="J3" t="n">
+      <c r="J6" t="n">
         <v>2973</v>
       </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
         <is>
           <t xml:space="preserve">Used and Need battery </t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Operation</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Laptop</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Lenovo 81DE Core i5 8GB SSD 512</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>PF1H2NPZ</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>5/28/2024</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Ahmed Subeh</t>
-        </is>
-      </c>
-      <c r="J4" t="n">
-        <v>2986</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Used and Good Condition </t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Admin &amp; HR</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Monitor</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lenovo ThnikVision E27q-10 27.0" Monitor, IPS panel, 2560x1440, Input connectors- DP 1.2 + HDMI 1.4, Cables included - HDMI </t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>V5FFV285</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2022-413</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Ibrahim Altoyan</t>
-        </is>
-      </c>
-      <c r="J5" t="n">
-        <v>1305</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Used and Good Condition </t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Admin &amp; HR</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Desktop</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Lenovo Think Station P340 TWR (500W) Core i9-10900 (10C / 20T, 2.8 / 5.2GHz, 20MB, 16GB DDR4 Ram, Intel Intgreated Graphics, DVD RW</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>2453</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2022-413</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Ibrahim Altoyan</t>
-        </is>
-      </c>
-      <c r="J6" t="n">
-        <v>1305</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Used and Good Condition </t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Admin &amp; HR</t>
+          <t>Sales</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Monitor</t>
+          <t>Laptop</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve">HP P24v G4 FHD Monitor </t>
+          <t xml:space="preserve"> Lenovo IdeaPad 1, Core i5, 8GB Ram, 256GB SSD, Win 10 Pro</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1CR105048Z</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2021-355</t>
-        </is>
+          <t xml:space="preserve">PF3XW5VH </t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>45572</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mohammed Zafir Alqarni </t>
+          <t>Mutokel Awad Salim Altaib</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>1430</v>
+        <v>1357</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
@@ -780,7 +753,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Admin &amp; HR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -790,26 +763,11 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>HP LE1901w Monitor</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>3CQ048020Q</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>25/7/2024</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>Mohamed Alkurdi</t>
-        </is>
-      </c>
-      <c r="J8" t="n">
-        <v>2264</v>
+          <t>Dell LCD Monetor 24”</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>45540</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -825,7 +783,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Representaion</t>
+          <t>Sales</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -835,27 +793,24 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Ideapad Lenovo laptop 
-Intel i5-12, 8GB, 256GB, Win 10 Pro</t>
+          <t>Lenovo IdelPad 16IAU7 i5 Core, SSD 256GB, Ram 8GB</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>PF0Y9X1M</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>12/19/2023</t>
-        </is>
+          <t xml:space="preserve">PF3Y5Q41 </t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>45502</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Mohammed Farag</t>
+          <t xml:space="preserve">Ahmed Abouzeid </t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>1323</v>
+        <v>2883</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -864,36 +819,41 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Used, Faulty Keyboard</t>
+          <t xml:space="preserve">Used and Good Condition </t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Sales</t>
+          <t xml:space="preserve">Admin </t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve">5G Zain Mobile </t>
+          <t>Monitor</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>HP LE1901w Monitor</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Number 0581576242</t>
-        </is>
-      </c>
-      <c r="H10" s="3" t="n">
-        <v>45482</v>
+          <t xml:space="preserve">3CQ048020Q </t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>45498</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>azeed alshammeri</t>
+          <t>Mohamed alkurdi</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>2303</v>
+        <v>2264</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -909,34 +869,34 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Sales</t>
+          <t>Operation</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Laptop +Bag</t>
+          <t>Laptop</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Lenovo IdeaPad 1, Core i5, 8GB Ram, 256GB SSD, Win 10 Pro</t>
+          <t>HP Laptop, 15da0xxx CPU:I5</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve">PF3XW5VH </t>
-        </is>
-      </c>
-      <c r="H11" s="3" t="n">
-        <v>45572</v>
+          <t>CND8482YN</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>45504</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Mutokel Awad Salim Altaib</t>
+          <t>Ayman Hamad</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>1357</v>
+        <v>1283</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -962,24 +922,13 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t xml:space="preserve">HP Laptop, 15da0xxx CPU: i3, 2.3GHz RAM: 4GB </t>
+          <t>HP Laptop, 15da0xxx CPU:I5</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>CND8340SBV</t>
-        </is>
-      </c>
-      <c r="H12" s="3" t="n">
-        <v>45491</v>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>Ahmed Eletrbi</t>
-        </is>
-      </c>
-      <c r="J12" t="n">
-        <v>1522</v>
+          <t>CND83409XX</t>
+        </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -995,35 +944,31 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Sales</t>
+          <t>Operation</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Laptop +Bag</t>
+          <t>Laptop</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Lenovo Ideapad 1, Core i5, 8GB Ram, 256GB SSD, Win 10 Pro</t>
+          <t xml:space="preserve">Lenovo E14, i5-10210U,8GB DDR4,1TB5400rpm, 14.0 FHD, Win10 Pro64 </t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>PF3XVRD4</t>
-        </is>
-      </c>
-      <c r="H13" s="3" t="n">
-        <v>45494</v>
+          <t>PF1B77F8</t>
+        </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ahmed Idris
-</t>
+          <t>Asif Khan</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>1411</v>
+        <v>1164</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -1032,7 +977,7 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Used and Good Condition </t>
+          <t>Used/NO EHTERNET</t>
         </is>
       </c>
     </row>
@@ -1044,29 +989,31 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Laptop + Bag</t>
+          <t>Laptop +Bag</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t xml:space="preserve">HP Laptop Note i5 7th Intel 500GB Sata SSD, 8GB Ram </t>
+          <t xml:space="preserve">Lenovo Laptop 15” i5, 512GB, 12GB, </t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>CND8340RXX</t>
-        </is>
-      </c>
-      <c r="H14" s="3" t="n">
-        <v>45497</v>
+          <t>PF1H338M</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>25/8/2024</t>
+        </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hamouda Ahmed </t>
+          <t>Farid Shehatah Lamloum</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>1599</v>
+        <v>2466</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -1082,7 +1029,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t xml:space="preserve">Operation </t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1092,16 +1039,27 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Lenovo ThinkPad E590 15” i7 Core 8Th G, 16GB Ram 1TP SSD</t>
+          <t xml:space="preserve">Laptop HP  
+Intel i5 – 8 GB – 256 GB SSD Win10 Home. </t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>PF1PY8K2</t>
-        </is>
-      </c>
-      <c r="H15" s="3" t="n">
-        <v>45540</v>
+          <t xml:space="preserve"> CND907342C</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>26/8/2024</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mohamed Erbid </t>
+        </is>
+      </c>
+      <c r="J15" t="n">
+        <v>1579</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1117,26 +1075,34 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>Operation</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Monitor</t>
+          <t>Laptop</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Dell LCD Monetor 24”</t>
+          <t xml:space="preserve">HP Laptop 15-da1005nx i5-8265U 1.6G, RAM 4GB Extended To12GB SSD500GB, 15.6 </t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>S/N</t>
-        </is>
-      </c>
-      <c r="H16" s="3" t="n">
-        <v>45540</v>
+          <t>CND9105BKD</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>45605</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Hassan Aljubran</t>
+        </is>
+      </c>
+      <c r="J16" t="n">
+        <v>2287</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1152,34 +1118,31 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Sales</t>
+          <t>Operation</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Laptop +Bag</t>
+          <t>Laptop</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Lenovo IdelPad 16IAU7 i5 Core, SSD 256GB, Ram 8GB</t>
+          <t xml:space="preserve">HP Pavilion15-cs3001nx i5-1035G18GB - HDD1TB - SSD 128, DSP15.6in </t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t xml:space="preserve">PF3Y5Q41 </t>
-        </is>
-      </c>
-      <c r="H17" s="3" t="n">
-        <v>45502</v>
+          <t xml:space="preserve">5CD0040CYG </t>
+        </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ahmed Abouzeid </t>
+          <t>Qasim Muhammed</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>2883</v>
+        <v>1758</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1188,41 +1151,41 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Used and Good Condition </t>
+          <t>Used/NO EHTERNET</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Sales</t>
+          <t>Operation</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Laptop + Bag</t>
+          <t>Laptop</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Lenovo ThinkPad E15 Gen2  CPU: i5 – 11th, RAM: 8GB, Storage: 256 GB SSD</t>
+          <t>Lenovo Thinkbook TP 15 Core i7 Ram 8GB 512GB SSD Win 10 Pro</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>PF3KTWAL</t>
-        </is>
-      </c>
-      <c r="H18" s="3" t="n">
-        <v>45502</v>
+          <t>MP22G5JT</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>45301</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Abdelhamid Hamed Abdelhamid</t>
+          <t>Naveed Ur Rehman</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>1377</v>
+        <v>1541</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -1231,41 +1194,41 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Used and Good Condition </t>
+          <t>Used/NO EHTERNET</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Sales</t>
+          <t>Operation</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Laptop + Bag</t>
+          <t>Laptop</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Laptop HP CPU: i5 – 11th, RAM: 8GB, Storage: 512 GB SSD </t>
+          <t xml:space="preserve">Dell Vostro 14 5401 Core i5-1035 , Ram 16GB, SSD 256GB, Widows 10 Home </t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>CND91226XJ</t>
-        </is>
-      </c>
-      <c r="H19" s="3" t="n">
-        <v>45503</v>
+          <t>BCD7F63</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>45421</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Gamil Osman</t>
+          <t>ALAA AHMED</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>1410</v>
+        <v>1885</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -1281,7 +1244,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Operation</t>
+          <t>Sales</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1291,24 +1254,27 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Acer Aspire A514-53, 8GB RAM, SSD 256</t>
+          <t xml:space="preserve">IdeaPad Lenovo laptop 
+Intel i5-12, 8GB, 256GB, Win 10 Pro </t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1A5C2N00</t>
-        </is>
-      </c>
-      <c r="H20" s="3" t="n">
-        <v>45442</v>
+          <t>PF46C1ZT</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>45360</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Abdulrahman Mustafa</t>
-        </is>
-      </c>
-      <c r="J20" t="n">
-        <v>1962</v>
+          <t xml:space="preserve">Karim Shabana	</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2836 </t>
+        </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -1334,23 +1300,26 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lenovo ideapad330
-Intel Core i5-8250U CPU,
-RAM 4GB, Storage 1TB HDD  </t>
+          <t>Lenovo IdeaPad 8gb ram</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>PF1H35AV</t>
+          <t>PF3Y5XRK</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>16/9/2024</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Mohammed Farag</t>
+          <t>Mohamed Muati</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>1323</v>
+        <v>2987</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -1366,7 +1335,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Sales</t>
+          <t xml:space="preserve">Operation </t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1376,24 +1345,26 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lenovo ThinkBook 14 G2 ITL,Intel i7-1165G7, Ram: 8GB, Storage: 512GB SSD, OS: Widows 10 Pro </t>
+          <t>HP15-da2005nx i7-10510U-1.80Hz – 8GB RAM HDD1TB – 15.6in</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MP1YVZP2</t>
-        </is>
-      </c>
-      <c r="H22" s="3" t="n">
-        <v>45503</v>
+          <t xml:space="preserve">CND04277VP </t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>24/9/2024</t>
+        </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mohammed Awad </t>
+          <t>Muhammad Ismail</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>1466</v>
+        <v>1920</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -1409,36 +1380,36 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Operation</t>
+          <t xml:space="preserve">Operation </t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Laptop </t>
+          <t>Laptop</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t xml:space="preserve">HP15-da2005nx i7-10510U-1.80GHz 8GB – SSD1TB -15.6in  </t>
+          <t>HP15-da2005nx i3 HDD1TB – 15.6in</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>CND04277BD</t>
-        </is>
-      </c>
-      <c r="H23" s="3" t="n">
-        <v>45503</v>
+          <t>CND824C5M7</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>30/9/2024</t>
+        </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>none</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
+          <t>Ayman Hamad</t>
+        </is>
+      </c>
+      <c r="J23" t="n">
+        <v>1283</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -1454,34 +1425,37 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t xml:space="preserve">Admin </t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Monitor</t>
+          <t>Desktop</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>HP LE1901w Monitor</t>
+          <t xml:space="preserve">HP EliteDesk 800G6  
+i710700 8GB/1TB PC </t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t xml:space="preserve">3CQ048020Q </t>
-        </is>
-      </c>
-      <c r="H24" s="3" t="n">
-        <v>45498</v>
+          <t>4CE121311W</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>19/9/2024</t>
+        </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Mohamed alkurdi</t>
+          <t xml:space="preserve">Afnan Alanazi	</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>2264</v>
+        <v>2857</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -1497,34 +1471,36 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Operation</t>
+          <t>Sales</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Laptop</t>
+          <t>Desktop</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>HP Laptop, 15da0xxx CPU:I5</t>
+          <t xml:space="preserve">Dell OptiPlex 7090 </t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>cnd8482yn</t>
-        </is>
-      </c>
-      <c r="H25" s="3" t="n">
-        <v>45504</v>
+          <t>DTNZHP3</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>28/10/2024</t>
+        </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Ayman Hamad</t>
+          <t xml:space="preserve">Nadia Jahfali </t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>1283</v>
+        <v>2374</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -1545,29 +1521,31 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Laptop + Bag</t>
+          <t>Monitor</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Lenovo E15 15” i5, 512GB, 8GB,</t>
+          <t xml:space="preserve">Dell SE2422H </t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>PF2R9E7Y</t>
-        </is>
-      </c>
-      <c r="H26" s="3" t="n">
-        <v>45504</v>
+          <t>CN-09WCH1-FCC00-237-AVHX-A01</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>28/10/2024</t>
+        </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t xml:space="preserve">Albaraa Mahmoud </t>
+          <t xml:space="preserve">Nadia Jahfali </t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>1421</v>
+        <v>2374</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -1583,7 +1561,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Sales</t>
+          <t>HR</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1593,21 +1571,26 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Lenovo ThinkPad E15, Core i5-8GB Ram-512GB SSD Win 10Pro</t>
+          <t>ASUS ExpertBook Core i5-10210, Ram 16GB, HDD 512GB, Widows 10 Pro</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>PF3R94WA</t>
+          <t>M1NXCV18Y472045</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>27/8/2024</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Taif Albishri</t>
+          <t>Shrouq Aldakkan</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>2938</v>
+        <v>2299</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -1616,14 +1599,14 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Used and Good Condition, adapter port issue </t>
+          <t xml:space="preserve">Used and Good Condition </t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Sales</t>
+          <t>HR</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1633,23 +1616,24 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>HP Laptop, 15da0xxx CPU:I5</t>
+          <t>Lenovo ThinkBook 14 G2 ITL CPU: Intel i7-1165G7, Storage: 512GB SSD RAM: 8GB, OS: Windows 10 Pro</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>CND83409XX</t>
-        </is>
+          <t>MP1YVV0A</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>45513</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>none</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
+          <t xml:space="preserve">Taghreed Alghamri </t>
+        </is>
+      </c>
+      <c r="J28" t="n">
+        <v>2090</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -1658,14 +1642,14 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>none</t>
+          <t xml:space="preserve">Used and Good Condition </t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Operation</t>
+          <t>Sales</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1675,25 +1659,24 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t xml:space="preserve">Acer Core i5-7200U, Ram 4GB, HDD 1T,
-Widows 10 Home  </t>
+          <t>Lenovo E15 15” i5, 512GB, 8GB</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>NXGNPEM0368171F5227600</t>
-        </is>
-      </c>
-      <c r="H29" s="3" t="n">
-        <v>44362</v>
+          <t>PF3QB0NB</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>45326</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Mohammed Farhan</t>
+          <t>Mohammed Alhazazi</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>1133</v>
+        <v>2417</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -1702,14 +1685,14 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>none</t>
+          <t xml:space="preserve">Used </t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Operation</t>
+          <t>Sales</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1719,21 +1702,21 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lenovo E14, i5-10210U,8GB DDR4,1TB5400rpm, 14.0 FHD, Win10 Pro64 </t>
+          <t>Lenovo Ideapad 1, Core i5, 8GB Ram, 256GB SSD, Win 10 Pro</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>PF1B77F8</t>
+          <t xml:space="preserve"> PF3XW5T4</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Asif Khan</t>
+          <t xml:space="preserve">Daniel Negaash </t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>1164</v>
+        <v>1337</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -1742,7 +1725,7 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t xml:space="preserve">Used and Good Condition,password locked </t>
+          <t xml:space="preserve">Used and Good Condition </t>
         </is>
       </c>
     </row>
@@ -1759,21 +1742,22 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>HP 14-cf0006nx, 16GB 1TB HDD 14" core i5-8250U</t>
+          <t xml:space="preserve">Lenovo ThinkBook 15 G2 ITL Intel i5-1135G7, Ram: 8GB,  512GB SSD, 
+ Widows 10 Pro  </t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>5CG8482HDJ</t>
+          <t>MP22PP5G</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Rehan Amin</t>
+          <t>Yasir Yousef</t>
         </is>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>1212</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -1782,7 +1766,7 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>No battery,SSD</t>
+          <t>Used/NO EHTERNET</t>
         </is>
       </c>
     </row>
@@ -1799,25 +1783,13 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t xml:space="preserve">HP LAPTOP CPU: Intel i3-7020U, Storage: 512GB SSD 
-RAM: 8GB, OS: Windows 10 Pro </t>
+          <t xml:space="preserve">HP Laptop 15-da1006nx, WIN10 </t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>CND824C562</t>
-        </is>
-      </c>
-      <c r="H32" s="3" t="n">
-        <v>45509</v>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>Mohammed Hashem</t>
-        </is>
-      </c>
-      <c r="J32" t="n">
-        <v>1459</v>
+          <t>CND83405DB</t>
+        </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -1826,7 +1798,7 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Used and Good Condition, need format </t>
+          <t>Used/NO EHTERNET</t>
         </is>
       </c>
     </row>
@@ -1843,24 +1815,21 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Lenovo Laptop i5 Core, 500GB SATA SSD, 8GB Ram</t>
+          <t xml:space="preserve">HP15-da2005nx i7-10510U-1.80GHz 8GB – SSD1TB -15.6in  </t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>FP1B75GX</t>
-        </is>
-      </c>
-      <c r="H33" s="3" t="n">
-        <v>45604</v>
+          <t>CND04276SL</t>
+        </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Fahad Alanizi</t>
+          <t>Abedaljabbar Shihab</t>
         </is>
       </c>
       <c r="J33" t="n">
-        <v>2712</v>
+        <v>1907</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -1869,44 +1838,38 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Used and Good Condition, need format </t>
+          <t xml:space="preserve">Used and Good Condition </t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Sales</t>
+          <t>Legal</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Laptop + Bag</t>
+          <t>Laptop</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t xml:space="preserve">IdeaPad Lenovo laptop
-Intel i5-12, 8GB, 256GB, Win10 Pro </t>
+          <t>Lenovo E590, i7-8565U, 8GB DDR4 HHD1TB, Win10Pro64, DSP15.6in</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>PF3XVX0A</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>14/8/2024</t>
+          <t>PF1PYD0L</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Ibrahim Adel</t>
+          <t>Mohammed Alkteari</t>
         </is>
       </c>
       <c r="J34" t="n">
-        <v>2760</v>
+        <v>2952</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -1915,43 +1878,39 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Used and Good Condition, password : 141985 </t>
+          <t xml:space="preserve">Used and Good Condition </t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Sales</t>
+          <t xml:space="preserve">Sales </t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Laptop +Bag</t>
+          <t>Laptop</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lenovo Laptop 15” i5, 512GB, 12GB, </t>
+          <t>Lenovo ThinkPad E15 Gen2  
+CPU: i5 – 11th, RAM: 8GB, Storage: 256 GB SSD</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>PF1H338M</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>25/8/2024</t>
+          <t xml:space="preserve"> PF3KVDMS</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Farid Shehatah Lamloum</t>
+          <t>Yazeed Al Shammari</t>
         </is>
       </c>
       <c r="J35" t="n">
-        <v>2466</v>
+        <v>2303</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -1967,7 +1926,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Sales</t>
+          <t>Operation</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1977,27 +1936,21 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t xml:space="preserve">HP LAPTOP CPU: Intel i3-8145U, Storage: 512GB SSD 
-RAM: 8GB, OS: Windows 10 Pro </t>
+          <t xml:space="preserve">Lenovo ThinkBook 15 G2 ITL CPU: Intel i7-1165G7, Ram: 8GB, Storage: 512GB SSD, OS: Widows 10 Pro  </t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CND9255MHB</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>18/8/2024</t>
+          <t>MP22PLZZ</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Rahaf Salem</t>
+          <t>Rauf Siddique</t>
         </is>
       </c>
       <c r="J36" t="n">
-        <v>2017</v>
+        <v>1510</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -2006,7 +1959,7 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Used and Good Condition/ password: Mel20244 </t>
+          <t xml:space="preserve">Used and Good Condition </t>
         </is>
       </c>
     </row>
@@ -2023,27 +1976,21 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t xml:space="preserve">HP Laptop 15-da1005nx2, i5-8265U, 1.6G-4GB-1TB-15.6in 
-</t>
+          <t xml:space="preserve">Lenovo ThinkBook 14 G2 ITL CPU: i7, 512GB SSD, RAM: 8GB, OS: Windows 10 Pro </t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>CND9221JVK</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>15/8/2024</t>
+          <t>MP1YVRTD</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t xml:space="preserve">Saif Saif Gul </t>
+          <t>Motasim Aljundi</t>
         </is>
       </c>
       <c r="J37" t="n">
-        <v>1836</v>
+        <v>2183</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -2052,14 +1999,14 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t xml:space="preserve">Used and battery issue </t>
+          <t xml:space="preserve">Used and Good Condition </t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t xml:space="preserve">Operation </t>
+          <t>Operation</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2069,27 +2016,21 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t xml:space="preserve">Laptop HP  
-Intel i5 – 8 GB – 256 GB SSD Win10 Home. </t>
+          <t>Dell Laptop P130G i5 Core 8GB Ram 512GB SSD</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CND907342C</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>26/8/2024</t>
+          <t>35D7F63</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mohamed Erbid </t>
+          <t>Razan Mohamed AlMutairi</t>
         </is>
       </c>
       <c r="J38" t="n">
-        <v>1579</v>
+        <v>2713</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -2105,36 +2046,41 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Sales</t>
+          <t>Operation</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Laptop</t>
+          <t xml:space="preserve">Laptop </t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>HP laptop</t>
+          <t>Lenovo ThinkPad E15 Gen4, Core i5-8GB Ram-GB 512SSD Win 10Pro,</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>CND8340SDB</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>16/9/2024</t>
+          <t>PF4B47K6</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>YWNR7-P7KHC-4GDYD-84W7R-YTDGT</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>2023-597</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t xml:space="preserve">Amro Saeed </t>
+          <t>Mohammed Toum</t>
         </is>
       </c>
       <c r="J39" t="n">
-        <v>1409</v>
+        <v>1289</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -2143,25 +2089,38 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>USED/ not the best condition</t>
+          <t xml:space="preserve">Used and Good Condition </t>
         </is>
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sales </t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Laptop</t>
+          <t xml:space="preserve">Laptop </t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Dell Laptop</t>
+          <t>Lenovo E15 15” i5, 512GB, 8GB,</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>5CD35129JV</t>
-        </is>
+          <t xml:space="preserve">PF3R92K7 </t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Abdullah Ahmad  Alqarni  </t>
+        </is>
+      </c>
+      <c r="J40" t="n">
+        <v>2372</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -2170,41 +2129,30 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Unknown Condition</t>
+          <t>Used / SHIFT KEY</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Operation</t>
-        </is>
-      </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Laptop</t>
+          <t>Monitor</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t xml:space="preserve">HP Laptop 15-da1005nx i5-8265U 1.6G, RAM 4GB Extended To12GB SSD500GB, 15.6 </t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>CND9105BKD</t>
-        </is>
-      </c>
-      <c r="H41" s="3" t="n">
-        <v>45605</v>
+          <t xml:space="preserve">Dell SE2422H </t>
+        </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Hassan Aljubran</t>
-        </is>
-      </c>
-      <c r="J41" t="n">
-        <v>2287</v>
+          <t>N\A</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>N\A</t>
+        </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -2218,36 +2166,25 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Operation</t>
-        </is>
-      </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Laptop</t>
+          <t>Monitor</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>HP Laptop 15-da1005nx2, i5-8265U, 1.6G-4GB-1TB-15.6in</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>CND9221J2Q</t>
-        </is>
-      </c>
-      <c r="H42" s="3" t="n">
-        <v>45295</v>
+          <t xml:space="preserve">Dell SE2422H </t>
+        </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Saif Saif Gul </t>
-        </is>
-      </c>
-      <c r="J42" t="n">
-        <v>1836</v>
+          <t>N\A</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>N\A</t>
+        </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -2261,34 +2198,24 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Operation</t>
-        </is>
-      </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Laptop</t>
+          <t>Monitor</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t xml:space="preserve">HP Laptop 15-da1006nx, WIN10 </t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>CND9105BMF</t>
+          <t xml:space="preserve">Dell SE2422H </t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>N\A</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>N\A</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -2303,33 +2230,15 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Operation</t>
-        </is>
-      </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Laptop</t>
+          <t>Monitor</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t xml:space="preserve">HP Pavilion15-cs3001nx i5-1035G18GB - HDD1TB - SSD 128, DSP15.6in </t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t xml:space="preserve">5CD0040CYG </t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>Qasim Muhammed</t>
-        </is>
-      </c>
-      <c r="J44" t="n">
-        <v>1758</v>
+          <t>HP Monitor</t>
+        </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -2338,43 +2247,20 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t xml:space="preserve">Used/ Lan port issue </t>
+          <t xml:space="preserve">Used and Good Condition </t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Operation</t>
-        </is>
-      </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Laptop</t>
+          <t>Monitor</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lenovo ThinkBook 14 G2 ITL CPU: Intel i7-1165G7, Storage: 512GB SSD RAM: 8GB, OS: Windows 10 Pro </t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>MP1YTHX7</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>14/10/2024</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mubarak Saad Aljwayzah </t>
-        </is>
-      </c>
-      <c r="J45" t="n">
-        <v>2930</v>
+          <t>HP Monitor</t>
+        </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -2400,24 +2286,21 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Lenovo Thinkbook TP 15 Core i7 Ram 8GB 512GB SSD Win 10 Pro</t>
+          <t xml:space="preserve">LENOVO ideapad 330 – i5, 465GB, SN PF1H2NPZ </t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>MP22G5JT</t>
-        </is>
-      </c>
-      <c r="H46" s="3" t="n">
-        <v>45301</v>
+          <t>PF1H2NPZ</t>
+        </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Naveed Ur Rehman</t>
+          <t>Ahmed Sami Subeh</t>
         </is>
       </c>
       <c r="J46" t="n">
-        <v>1541</v>
+        <v>2986</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -2433,7 +2316,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Operation</t>
+          <t>Commercial</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2443,65 +2326,63 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dell Vostro 14 5401 Core i5-1035 , Ram 16GB, SSD 256GB, Widows 10 Home </t>
+          <t>LENOVO LAPTOP INTEL I5, 500GB SSD, 8GB RAM</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>BCD7F63</t>
-        </is>
-      </c>
-      <c r="H47" s="3" t="n">
-        <v>45421</v>
+          <t xml:space="preserve">PF0YEUP3 </t>
+        </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>ALAA AHMED</t>
+          <t>Wael Ibrahim</t>
         </is>
       </c>
       <c r="J47" t="n">
-        <v>1885</v>
+        <v>2997</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
           <t>IT</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Used and Good Condition </t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Sales</t>
+          <t xml:space="preserve">Sales </t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Laptop</t>
+          <t xml:space="preserve">Laptop </t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t xml:space="preserve">IdeaPad Lenovo laptop 
-Intel i5-12, 8GB, 256GB, Win 10 Pro </t>
+          <t xml:space="preserve">Lenovo ideapad330 
+Intel Core i5-8250U CPU, 
+RAM 4GB, Storage 1TB HDD  </t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>PF46C1ZT</t>
-        </is>
-      </c>
-      <c r="H48" s="3" t="n">
-        <v>45360</v>
+          <t>PF1H35AV</t>
+        </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t xml:space="preserve">Karim Shabana	</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2836 </t>
-        </is>
+          <t>Mohammed Farag</t>
+        </is>
+      </c>
+      <c r="J48" t="n">
+        <v>1323</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -2517,36 +2398,32 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Sales</t>
+          <t xml:space="preserve">Sales </t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Laptop</t>
+          <t xml:space="preserve">Laptop </t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lenovo IdeaPad 8gb ram, </t>
+          <t xml:space="preserve">HP Laptop, 15da0xxx 
+CPU: i3, 2.3GHz RAM: 4GB </t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>PF3Y5XRK</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>16/9/2024</t>
+          <t>CND8340SBV</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Mohamed Muati</t>
+          <t>Ahmed Eletrbi</t>
         </is>
       </c>
       <c r="J49" t="n">
-        <v>2987</v>
+        <v>1522</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -2562,7 +2439,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t xml:space="preserve">Operation </t>
+          <t>Operation</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2572,26 +2449,21 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Dell Vostro 14 5401 Core i5-1035, RAM 8GB, SSD 256GB, Widows 10Pro</t>
+          <t xml:space="preserve">HP15-da2005nx i7-10510U-1.80GHz 8GB - HDD1TB -15.6in </t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t xml:space="preserve">4TD7F63 </t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>29/8/2024</t>
+          <t>CND04277BD</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Itaf Ashraf Al Ayouti</t>
+          <t>Ajantha Handapangoda</t>
         </is>
       </c>
       <c r="J50" t="n">
-        <v>2969</v>
+        <v>1908</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -2600,43 +2472,40 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t xml:space="preserve">Used/ screen broken but usable </t>
+          <t xml:space="preserve">Used and Good Condition </t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t xml:space="preserve">Operation </t>
+          <t xml:space="preserve">Sales </t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Laptop</t>
+          <t xml:space="preserve">Laptop </t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>HP15-da2005nx i7-10510U-1.80Hz – 8GB RAM HDD1TB – 15.6in</t>
+          <t xml:space="preserve">HP LAPTOP 
+CPU: Intel i3-7020U, Storage: 512GB SSD 
+RAM: 8GB, OS: Windows 10 Pro </t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t xml:space="preserve">CND04277VP </t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>24/9/2024</t>
+          <t>CND824C562</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Muhammad Ismail</t>
+          <t>Mohamed Hashim</t>
         </is>
       </c>
       <c r="J51" t="n">
-        <v>1920</v>
+        <v>1459</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -2650,11 +2519,6 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Operation </t>
-        </is>
-      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Laptop</t>
@@ -2662,534 +2526,21 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>HP15-da2005nx i3 HDD1TB – 15.6in</t>
+          <t xml:space="preserve">HP Laptop 15-da1005nx2, i5-8265U, 1.6G-4GB-1TB-15.6in  </t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>CND824C5M7</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>30/9/2024</t>
+          <t xml:space="preserve">CND9221JVK </t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Ayman Hamad</t>
+          <t>Essam Thabet</t>
         </is>
       </c>
       <c r="J52" t="n">
-        <v>1283</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Used and Good Condition </t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Finance</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Desktop</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t xml:space="preserve">HP EliteDesk 800G6  
-i710700 8GB/1TB PC </t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>4CE121311W</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>19/9/2024</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Afnan Alanazi	</t>
-        </is>
-      </c>
-      <c r="J53" t="n">
-        <v>2857</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Used and Good Condition </t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>Sales</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Desktop</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dell OptiPlex 7090 </t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>DTNZHP3</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>28/10/2024</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Nadia Jahfali </t>
-        </is>
-      </c>
-      <c r="J54" t="n">
-        <v>2374</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Used and Good Condition </t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>Sales</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Monitor</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dell SE2422H </t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>CN-09WCH1-FCC00-237-AVHX-A01</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>28/10/2024</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Nadia Jahfali </t>
-        </is>
-      </c>
-      <c r="J55" t="n">
-        <v>2374</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Used and Good Condition </t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>Sales</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Keyboard &amp; Mouse</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>Dell MS116</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>CN-0DTPK2-LO300-217-0D8H-A00,  CN-0C4JKP-PRC00-22E-01CJ</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>28/10/2024</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Nadia Jahfali </t>
-        </is>
-      </c>
-      <c r="J56" t="n">
-        <v>2374</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Used and Good Condition </t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Operation </t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>Laptop</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>Dell G5 15 Gaming Laptop15.6", Intel Core i7-10750H (10th Gen), NVIDIA GeForce GTX 1650 Ti (4 GB), 512 GB PCIe NVMe M.2 SSD</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>41QZ763</t>
-        </is>
-      </c>
-      <c r="H57" s="3" t="n">
-        <v>45331</v>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Mohammad M Mustafa</t>
-        </is>
-      </c>
-      <c r="J57" t="n">
-        <v>1742</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>old and not usable</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>HR</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Laptop</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>Lenovo ThinkBook 14 G2 ITL CPU: Intel i7-1165G7, Storage: 512GB SSD RAM: 8GB, OS: Windows 10 Pro</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>MP1YVV0A</t>
-        </is>
-      </c>
-      <c r="H58" s="3" t="n">
-        <v>45513</v>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Taghreed Alghamri </t>
-        </is>
-      </c>
-      <c r="J58" t="n">
-        <v>2090</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Used and Good Condition </t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>Sales</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Laptop</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lenovo laptop </t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t xml:space="preserve">PF1H3XMH </t>
-        </is>
-      </c>
-      <c r="H59" s="3" t="n">
-        <v>45608</v>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>Turki alotaibi</t>
-        </is>
-      </c>
-      <c r="J59" t="n">
-        <v>2560</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Used and Good Condition </t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Operation </t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>Laptop</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t xml:space="preserve">HP Pavilion15-cs3001nx i5-1035G1  8GB - HDD1TB - SSD 128, DSP15.6in </t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t xml:space="preserve">5CD0040CQ5 </t>
-        </is>
-      </c>
-      <c r="H60" s="3" t="n">
-        <v>45608</v>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>Ahmed Alnajjar</t>
-        </is>
-      </c>
-      <c r="J60" t="n">
-        <v>1905</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>Damaged</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Operation </t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>Laptop</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dell Vostro 14 5401 Core i5-1035, Ram 8GB, SSD 256GB, Widows 10 Home  </t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>1TC7F63</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>21/11/2024</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>mohamed jaber</t>
-        </is>
-      </c>
-      <c r="J61" t="n">
-        <v>2292</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Used and Good Condition </t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Operation </t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>Laptop</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>Lenovo Laptop i5 Core, 500GB SATA SSD, 8GB Ram</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>PF4430EK</t>
-        </is>
-      </c>
-      <c r="H62" s="3" t="n">
-        <v>45454</v>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>Mohammed Al Qarnii</t>
-        </is>
-      </c>
-      <c r="J62" t="n">
-        <v>2943</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>not usable/power issue</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>Laptop</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>Lenovo E15 15” i5, 512GB, 8GB</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>PF3QB0NB</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>Motasem Al Zamil</t>
-        </is>
-      </c>
-      <c r="J63" t="n">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>laptop</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>New</t>
-        </is>
+        <v>3001</v>
       </c>
     </row>
   </sheetData>
